--- a/Чек-лист для СПВ 7024М (7024M Demo).xlsx
+++ b/Чек-лист для СПВ 7024М (7024M Demo).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.larionov\Desktop\Документы\Тестовая документация\СПВ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F46C7A-80F7-4557-91C3-D73581A25632}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B109B8CF-96C8-4032-BDD1-2E8BFE50FD31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17640" windowHeight="7980" xr2:uid="{BB734CF7-77E4-4A1A-8A7A-5760E7285ADB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
   <si>
     <t>Название тест-кейса</t>
   </si>
@@ -39,79 +39,235 @@
     <t>Комментарий</t>
   </si>
   <si>
-    <t>Инициализация</t>
-  </si>
-  <si>
     <t>Подключение считывателя в «Тестовое приложение»</t>
   </si>
   <si>
     <t>Проверить подключение считывателя по нажатию кнопки «Подключение» в «Тестовое приложение»</t>
   </si>
   <si>
-    <t>Повторное подключение считывателя в «Тестовое приложение»</t>
-  </si>
-  <si>
-    <t>Проверить повторное подключение считывателя после повторного нажатия кнопки «Подключение» в «Тестовое приложение»</t>
-  </si>
-  <si>
-    <t>Отключение кнопкой «Отключение» считывателя в «Тестовое приложение»</t>
-  </si>
-  <si>
     <t>Проверить отключение считывателя по нажатию кнопки «Отключение» в «Тестовое приложение»</t>
   </si>
   <si>
-    <t>Считывание документа в «Тестовое приложение»</t>
-  </si>
-  <si>
-    <t>Проверить считывание документа в «Тестовое приложение»</t>
-  </si>
-  <si>
-    <t>Считывание документа c интегральной микросхемой в «Тестовое приложение»</t>
-  </si>
-  <si>
-    <t>Проверить считывание документа и полученную информацию с интегральной схемой в «Тестовое приложение»</t>
-  </si>
-  <si>
-    <t>Проверить считывание документа без интегральной схемы в «Тестовое приложение»</t>
-  </si>
-  <si>
-    <t>Считывание документа без интегральной микросхемы в «Тестовое приложение»</t>
-  </si>
-  <si>
-    <t>Считывание документа с MRZ в «Тестовое приложение»</t>
-  </si>
-  <si>
-    <t>Проверить считывание документа с MRZ и полученную информацию в «Тестовое приложение»</t>
-  </si>
-  <si>
-    <t>Считывание документа без MRZ в «Тестовое приложение»</t>
-  </si>
-  <si>
-    <t>Проверить считывание документа без MRZ в «Тестовое приложение»</t>
-  </si>
-  <si>
-    <t>Считывание документа без фотографии в «Тестовое приложение»</t>
-  </si>
-  <si>
-    <t>Проверить считывание документа без фотографии в «Тестовое приложение»</t>
-  </si>
-  <si>
-    <t>Считывание документа без фотографии и без MRZ в «Тестовое приложение»</t>
-  </si>
-  <si>
-    <t>Проверить, что ничего не будет заполняться после считывания документа без фотографии и без MRZ в «Тестовое приложение»</t>
-  </si>
-  <si>
-    <t>Считывание обложки документа в «Тестовое приложение»</t>
-  </si>
-  <si>
-    <t>Проверить, что ничего не будет заполняться после считывания обложки документа в «Тестовое приложение»</t>
-  </si>
-  <si>
-    <t>Считывание документа с открытой крышкой</t>
-  </si>
-  <si>
-    <t>Проверить считывание документа с открытой крышкой считывателя и заполнение всех рабочих областей и полей</t>
+    <t>Установка ПО Regula SDK</t>
+  </si>
+  <si>
+    <t>Наличие ПО Regula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверить что все компоненты Regula SDK устанавливаются </t>
+  </si>
+  <si>
+    <t>Проверить наличие ПО Regula Document Reader SDK, Regula Reader Documents Database, Regula Reader Drivers, в «Программы и компоненты»</t>
+  </si>
+  <si>
+    <t>Запуск приложения «Тестовое приложение»</t>
+  </si>
+  <si>
+    <t>Проверить запуск приложения «Тестовое приложение» с ярлыка 7024M Demo.exe</t>
+  </si>
+  <si>
+    <t>Отключение считывателя кнопкой «Отключение»</t>
+  </si>
+  <si>
+    <t>Повторное подключение считывателя после нажатия кнопки «Отключение»</t>
+  </si>
+  <si>
+    <t>После отключения считывателя кнопкой «Отключение» провести повторное подключение кнопкой «Подключение»</t>
+  </si>
+  <si>
+    <t>Калибровка считывателя</t>
+  </si>
+  <si>
+    <t>Проверить калибровку считывателя по нажатию кнопки «Калибровка»</t>
+  </si>
+  <si>
+    <t>Считывание документа без интегральной микросхемы</t>
+  </si>
+  <si>
+    <t>Проверить считывание документа без интегральной микросхемы в «Тестовое приложение»</t>
+  </si>
+  <si>
+    <t>Считывание документа с интегральной микросхемы</t>
+  </si>
+  <si>
+    <t>Проверить считывание документа с интегральной схемой в «Тестовое приложение»</t>
+  </si>
+  <si>
+    <t>Появление изображение в области «Страницы документа»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверить появление в области «Страницы документов», после считывания документа, изображение страницы документа </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Большое количество страниц в области «Страницы документов» </t>
+  </si>
+  <si>
+    <t>Проверить что большое количество страниц отобразиться в области «Страницы документов»</t>
+  </si>
+  <si>
+    <t>Выбор страниц документа в области «Страницы документа»</t>
+  </si>
+  <si>
+    <t>Проверить что можно выбрать другую страницу в области «Страницы документа»</t>
+  </si>
+  <si>
+    <t>Удаление страниц документа из области «Страницы документа»</t>
+  </si>
+  <si>
+    <t>Появление изображений в области «Схема освещения»</t>
+  </si>
+  <si>
+    <t>Проверить появление после считывания четырех изображений в рабочей области «Схема освещения»</t>
+  </si>
+  <si>
+    <t>Выбор изображения из области «Схема освещения»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверить отображение изображения в области «Изображение страницы» выбрав из области «Схема освещения» изображение </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Информация документа во вкладке «Текстовые элементы» </t>
+  </si>
+  <si>
+    <t>Проверить наличие информации, полученной из документа, во вкладке «Текстовые документы»</t>
+  </si>
+  <si>
+    <t>Сравнение МСЗ-ЗВП</t>
+  </si>
+  <si>
+    <t>Проверить наличие колонки сравнения МСЗ и ЗВП во вкладке «Текстовые элементы»</t>
+  </si>
+  <si>
+    <t>Сравнение МСЗ-ИС</t>
+  </si>
+  <si>
+    <t>Проверить наличие колонки «Сравнения МСЗ и ИС» во вкладке «Текстовые элементы»</t>
+  </si>
+  <si>
+    <t>Сравнение ЗВП-ИС</t>
+  </si>
+  <si>
+    <t>Проверить наличие сравнения ЗВП и ИС во вкладке «Текстовые элементы»</t>
+  </si>
+  <si>
+    <t>Переключение на вкладку «Графические элементы» после считывания документа</t>
+  </si>
+  <si>
+    <t>Проверить переключение на вкладку «Графические элементы» после считывания документа</t>
+  </si>
+  <si>
+    <t>Переключение на вкладку «Элементы защиты» после считывания документа</t>
+  </si>
+  <si>
+    <t>Наличие знака проверок в виде зеленой галки в колонке «Результат проверки»</t>
+  </si>
+  <si>
+    <t>Проверить что появиться знак в виде зеленой галки в колонке «Результат проверки» во вкладке «Элементы защиты», при пройденной проверки</t>
+  </si>
+  <si>
+    <t>Наличие знака проверок в виде красного креста в колонке «Результат проверки»</t>
+  </si>
+  <si>
+    <t>Проверить что появиться знак в виде красного креста в колонке «Результат проверки» во вкладке «Элементы защиты», при не пройденной проверки</t>
+  </si>
+  <si>
+    <t>Наличие знака проверок в виде зеленой галки в области «Результаты проверки»</t>
+  </si>
+  <si>
+    <t>Проверить что появиться знаки в виде зеленой галки в области «Результаты проверки», при пройденных проверках</t>
+  </si>
+  <si>
+    <t>Наличие знака проверок в виде красного креста в области «Результаты проверки»</t>
+  </si>
+  <si>
+    <t>Проверить что появятся знаки в виде красного креста в области «Результаты проверки», при пройденных проверках</t>
+  </si>
+  <si>
+    <t>Список несовпадающих элементов у пункта проверки «Сравнение текстовых данных»</t>
+  </si>
+  <si>
+    <t>Проверить наличие выпадающего списка с несовпадающими элементами в пункте «Сравнение текстовых данных» в области «Результаты проверки»</t>
+  </si>
+  <si>
+    <t>Список несовпадающих элементов у пункта проверки «Проверка элементов защиты»</t>
+  </si>
+  <si>
+    <t>Проверить наличие выпадающего списка с несовпадающими элементами в пункте «Проверка элементов защиты» в области «Результаты проверки»</t>
+  </si>
+  <si>
+    <t>Отображение не совпадающего элемента из пункта «Сравнение текстовых данных»</t>
+  </si>
+  <si>
+    <t>Проверить выделение не совпадающих элементов из пункта «Сравнение текстовых данных» в области «Изображение страницы» и «Текстовые элементы»</t>
+  </si>
+  <si>
+    <t>Отображение не совпадающего элемента из пункта «Проверка элементов защиты»</t>
+  </si>
+  <si>
+    <t>Проверить выделение не совпадающих элементов из пункта «Проверка элементов защиты» в области «Изображение страницы» и «Элементы защиты»</t>
+  </si>
+  <si>
+    <t>Проверить повторную инициализацию после кратковременного отключения</t>
+  </si>
+  <si>
+    <t>Отключение во время считывания</t>
+  </si>
+  <si>
+    <t>Отключить от компьютера считыватель во время считывания тестового документа</t>
+  </si>
+  <si>
+    <t>Наличие изображений в папке reader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверить наличие изображений и файла ocr_result.xml после считывания в папке reader </t>
+  </si>
+  <si>
+    <t>Сравнение полученной информации в ocr_result.xml</t>
+  </si>
+  <si>
+    <t>Проверить информацию из файла ocr_result.xml с информацией в приложение «Тестовое приложение»</t>
+  </si>
+  <si>
+    <t>Наличие изображений в папке rfid</t>
+  </si>
+  <si>
+    <t>Проверить наличие изображений и файла rfid_result.xml после считывания в папке rfid</t>
+  </si>
+  <si>
+    <t>Сравнение полученной информации в rfid_result.xml</t>
+  </si>
+  <si>
+    <t>Проверить информацию из файла rfid_result.xml с информацией в приложение «Тестовое приложение»</t>
+  </si>
+  <si>
+    <t>Проверка установки приложения</t>
+  </si>
+  <si>
+    <t>Проверка запуска приложения</t>
+  </si>
+  <si>
+    <t>Проверка подключения и отключения считывателя</t>
+  </si>
+  <si>
+    <t>Проведение калибровки</t>
+  </si>
+  <si>
+    <t>Считывание документов</t>
+  </si>
+  <si>
+    <t>Проверка рабочей области «Страницы документа»</t>
+  </si>
+  <si>
+    <t>Проверка рабочей области «Схема освещения»</t>
+  </si>
+  <si>
+    <t>Проверка рабочей области «Данные документа»</t>
+  </si>
+  <si>
+    <t>Проверка рабочей области «Результаты проверки»</t>
+  </si>
+  <si>
+    <t>Проверка наличия полученной информации от считывателя</t>
   </si>
 </sst>
 </file>
@@ -184,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -193,8 +349,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -511,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32E2D9-6A4B-4875-96AA-ED0583966739}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +692,7 @@
     <col min="4" max="4" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,199 +706,435 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4"/>
       <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4"/>
+      <c r="A7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="5" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="5" t="s">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="5" t="s">
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="5" t="s">
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="5" t="s">
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="5" t="s">
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="5" t="s">
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="4"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="2"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Чек-лист для СПВ 7024М (7024M Demo).xlsx
+++ b/Чек-лист для СПВ 7024М (7024M Demo).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.larionov\Desktop\Документы\Тестовая документация\СПВ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B109B8CF-96C8-4032-BDD1-2E8BFE50FD31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BD3CFC-2124-4D7F-A975-C79BE4D9B4E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17640" windowHeight="7980" xr2:uid="{BB734CF7-77E4-4A1A-8A7A-5760E7285ADB}"/>
   </bookViews>
@@ -274,7 +274,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,7 +284,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -292,7 +291,16 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -308,12 +316,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -336,36 +343,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Нейтральный" xfId="1" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -680,464 +725,476 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32E2D9-6A4B-4875-96AA-ED0583966739}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.5703125" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" customWidth="1"/>
     <col min="4" max="4" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="12"/>
+      <c r="C28" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3" t="s">
+      <c r="B29" s="12"/>
+      <c r="C29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="12"/>
+      <c r="C30" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="3" t="s">
+      <c r="B31" s="12"/>
+      <c r="C31" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="3" t="s">
+      <c r="B32" s="12"/>
+      <c r="C32" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="12"/>
+      <c r="C33" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="12"/>
+      <c r="C34" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="12"/>
+      <c r="C36" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="2"/>
+      <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="12"/>
+      <c r="C37" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="3" t="s">
+      <c r="B38" s="12"/>
+      <c r="C38" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="2"/>
+      <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="3" t="s">
+      <c r="B39" s="12"/>
+      <c r="C39" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="2"/>
+      <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="3" t="s">
+      <c r="B40" s="12"/>
+      <c r="C40" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="2"/>
+      <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="3" t="s">
+      <c r="B41" s="12"/>
+      <c r="C41" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10"/>
     </row>
     <row r="43" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="3" t="s">
+      <c r="B43" s="12"/>
+      <c r="C43" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="2"/>
+      <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="3" t="s">
+      <c r="B44" s="12"/>
+      <c r="C44" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="2"/>
+      <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="3" t="s">
+      <c r="B45" s="12"/>
+      <c r="C45" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="2"/>
+      <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="3" t="s">
+      <c r="B46" s="12"/>
+      <c r="C46" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D46" s="2"/>
+      <c r="D46" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A18:D18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Чек-лист для СПВ 7024М (7024M Demo).xlsx
+++ b/Чек-лист для СПВ 7024М (7024M Demo).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.larionov\Desktop\Документы\Тестовая документация\СПВ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BD3CFC-2124-4D7F-A975-C79BE4D9B4E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2563910B-9CBD-42E7-8371-6E38F5A9CF3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17640" windowHeight="7980" xr2:uid="{BB734CF7-77E4-4A1A-8A7A-5760E7285ADB}"/>
   </bookViews>
@@ -372,16 +372,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -396,17 +390,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -725,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32E2D9-6A4B-4875-96AA-ED0583966739}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,16 +732,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -763,11 +757,11 @@
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -778,24 +772,24 @@
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -806,54 +800,54 @@
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -864,14 +858,14 @@
       <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -882,24 +876,24 @@
       <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="8" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
@@ -910,44 +904,44 @@
       <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
@@ -958,24 +952,24 @@
       <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -986,81 +980,81 @@
       <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="8" t="s">
+      <c r="B28" s="8"/>
+      <c r="C28" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="8" t="s">
+      <c r="B29" s="8"/>
+      <c r="C29" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="8" t="s">
+      <c r="B30" s="8"/>
+      <c r="C30" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="8" t="s">
+      <c r="B31" s="8"/>
+      <c r="C31" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="8" t="s">
+      <c r="B32" s="8"/>
+      <c r="C32" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="8" t="s">
+      <c r="B33" s="8"/>
+      <c r="C33" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="8" t="s">
+      <c r="B34" s="8"/>
+      <c r="C34" s="6" t="s">
         <v>47</v>
       </c>
       <c r="D34" s="1"/>
@@ -1074,61 +1068,61 @@
       <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="8" t="s">
+      <c r="B36" s="8"/>
+      <c r="C36" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="8" t="s">
+      <c r="B37" s="8"/>
+      <c r="C37" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="8" t="s">
+      <c r="B38" s="8"/>
+      <c r="C38" s="6" t="s">
         <v>53</v>
       </c>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="8" t="s">
+      <c r="B39" s="8"/>
+      <c r="C39" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="8" t="s">
+      <c r="B40" s="8"/>
+      <c r="C40" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="8" t="s">
+      <c r="B41" s="8"/>
+      <c r="C41" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D41" s="1"/>
@@ -1142,41 +1136,41 @@
       <c r="D42" s="10"/>
     </row>
     <row r="43" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="8" t="s">
+      <c r="B43" s="8"/>
+      <c r="C43" s="6" t="s">
         <v>64</v>
       </c>
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="8" t="s">
+      <c r="B44" s="8"/>
+      <c r="C44" s="6" t="s">
         <v>66</v>
       </c>
       <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="8" t="s">
+      <c r="B45" s="8"/>
+      <c r="C45" s="6" t="s">
         <v>68</v>
       </c>
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="8" t="s">
+      <c r="B46" s="8"/>
+      <c r="C46" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D46" s="1"/>
